--- a/input/extension/user-defined-energy/TEST_lvl1-instructions.xlsx
+++ b/input/extension/user-defined-energy/TEST_lvl1-instructions.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/extension/user-defined-energy/TEST_lvl1-instructions.xlsx
+++ b/input/extension/user-defined-energy/TEST_lvl1-instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>iso</t>
   </si>
@@ -58,21 +58,6 @@
   </si>
   <si>
     <t>priority</t>
-  </si>
-  <si>
-    <t>L1_agg_fuel</t>
-  </si>
-  <si>
-    <t>L2_CEDS_fuel</t>
-  </si>
-  <si>
-    <t>L3_agg_sector</t>
-  </si>
-  <si>
-    <t>L4_CEDS_sector</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>deu</t>
@@ -435,7 +420,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -463,20 +448,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -487,25 +472,13 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>1937</v>
@@ -515,9 +488,6 @@
       </c>
       <c r="E2">
         <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
